--- a/data/trans_dic/P1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1_R-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04008116629554263</v>
+        <v>0.04056706272876009</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0639763478902218</v>
+        <v>0.06144231843449621</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1022434342976513</v>
+        <v>0.1004292250099114</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2146977850615948</v>
+        <v>0.2117870744393866</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.05218756710973978</v>
+        <v>0.05193035653955911</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.08221701890727943</v>
+        <v>0.08100607843085789</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.09519470304631629</v>
+        <v>0.09737006753062243</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1765083040862576</v>
+        <v>0.1780122049264652</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05095785319849221</v>
+        <v>0.05116674891171301</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.07776864905217198</v>
+        <v>0.07785913451034839</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1062686639274536</v>
+        <v>0.1051656622336116</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2037663291283075</v>
+        <v>0.2032387458339016</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07609564425316602</v>
+        <v>0.07501102607021304</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1066407672073169</v>
+        <v>0.1063456454549993</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1522778694694044</v>
+        <v>0.1546885090811086</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.283310265700315</v>
+        <v>0.2821128063384052</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.09153598603480081</v>
+        <v>0.09030992651290462</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1300997147870797</v>
+        <v>0.1252998370703784</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.150031224252354</v>
+        <v>0.1499371298372261</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2210588964306527</v>
+        <v>0.2227543798204805</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.07714381493201267</v>
+        <v>0.07759933814880968</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1092919496325148</v>
+        <v>0.1103055366845286</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1431794457267571</v>
+        <v>0.1415369261956275</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2429644973734187</v>
+        <v>0.2428072144673269</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.1048195099150752</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1658754981959656</v>
+        <v>0.1658754981959655</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.07942770492300934</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04319704593987291</v>
+        <v>0.04137748649954889</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05906916542228526</v>
+        <v>0.05683048246695982</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08582921543259468</v>
+        <v>0.08685642874944399</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1422906450170328</v>
+        <v>0.1439054100207224</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.06265088889158141</v>
+        <v>0.06316504762174699</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05669811311835355</v>
+        <v>0.05815967911469548</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.08133093879080282</v>
+        <v>0.08044817139364331</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1398451143678549</v>
+        <v>0.1384100532965586</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05734045392635456</v>
+        <v>0.05870869872544206</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.06225800722255673</v>
+        <v>0.06205751246789713</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.08872569566910607</v>
+        <v>0.08818912884430279</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1463150559270926</v>
+        <v>0.1477723136828174</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07722227130764779</v>
+        <v>0.07351569133270747</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0910331454832842</v>
+        <v>0.09078463122480189</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1267198466310583</v>
+        <v>0.1267973461155148</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1913411879986608</v>
+        <v>0.1931871343871998</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.09863037617685684</v>
+        <v>0.09912267462445708</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.09151561677683377</v>
+        <v>0.09056174300323207</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1208048988730989</v>
+        <v>0.1200632783846477</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1739903765131821</v>
+        <v>0.1762864117428942</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.08123309235020433</v>
+        <v>0.08025146715448639</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.08647039174798225</v>
+        <v>0.08596432815056269</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1161567180539705</v>
+        <v>0.116354151466879</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1763931501844897</v>
+        <v>0.1779049858655726</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0547684761806614</v>
+        <v>0.05596269365146582</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06161213961332696</v>
+        <v>0.06109893635378296</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1072524835092398</v>
+        <v>0.104489717066928</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1377089450490036</v>
+        <v>0.1426937377706039</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.08339053815899243</v>
+        <v>0.08303328939723993</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.06773071923364506</v>
+        <v>0.06860009851866845</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.09950406246510513</v>
+        <v>0.1005897166969545</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1174074592206455</v>
+        <v>0.1191555871585068</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.07464131677842253</v>
+        <v>0.07533607068570647</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.07079763030902896</v>
+        <v>0.07137980233056385</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1079147256417385</v>
+        <v>0.1103857536647848</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1364672826624029</v>
+        <v>0.13618338025813</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.09968235152250195</v>
+        <v>0.1008633312487058</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1050926211594364</v>
+        <v>0.1048611145492677</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1604651825406386</v>
+        <v>0.156086345101027</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1999192599994507</v>
+        <v>0.2059790061951138</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1284095006190035</v>
+        <v>0.1286068053698387</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1108839896677131</v>
+        <v>0.1105153526728929</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1495681565505169</v>
+        <v>0.1501467072263634</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.157793173285415</v>
+        <v>0.1599568168591022</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1076602648479527</v>
+        <v>0.1086150046942467</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1009339682187943</v>
+        <v>0.1018814797768442</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1452663173852969</v>
+        <v>0.1461553531768018</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1729486257434809</v>
+        <v>0.1707421193564567</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.08129274338296738</v>
+        <v>0.0815543996948094</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07699179750719964</v>
+        <v>0.0767177518307329</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1226024489757706</v>
+        <v>0.1241554989652876</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1491151281406941</v>
+        <v>0.1479990995964881</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.07759502907415319</v>
+        <v>0.07889231141284593</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1113596742934051</v>
+        <v>0.1126053375296422</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1539475947950938</v>
+        <v>0.1548293744519925</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1872681269527661</v>
+        <v>0.1876642983118179</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.08418340835935602</v>
+        <v>0.08439178913627919</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1012474266043693</v>
+        <v>0.09956656548332415</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1465417889289785</v>
+        <v>0.1471622671893175</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.174533031724297</v>
+        <v>0.1765013574992977</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1203404785839072</v>
+        <v>0.120373634392464</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1176441168061152</v>
+        <v>0.1177048159412329</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1698144825480568</v>
+        <v>0.1704108238450803</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1987185350547862</v>
+        <v>0.1957731250941883</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1153928190331551</v>
+        <v>0.1158175633922083</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1563289503102429</v>
+        <v>0.1552016818273543</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2048576360930157</v>
+        <v>0.2050770022139128</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2275449996403605</v>
+        <v>0.2279321918210723</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1100424558447261</v>
+        <v>0.1123403054760704</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1296778461177013</v>
+        <v>0.1296758444672135</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1797519181563422</v>
+        <v>0.1818940235861427</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2052032309152028</v>
+        <v>0.2075339360216754</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.06363775814385855</v>
+        <v>0.06392091018881668</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.07353589179371658</v>
+        <v>0.07376566413983661</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.114175577339665</v>
+        <v>0.1143349401157984</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1707315394594008</v>
+        <v>0.1708704782635676</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.07788274767754579</v>
+        <v>0.07785665563343803</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.08966359619544415</v>
+        <v>0.08911999714698692</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1200827701813381</v>
+        <v>0.1210610439081573</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1658578430228926</v>
+        <v>0.166484069332754</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.07423037710159512</v>
+        <v>0.07372288706060959</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.08475446706629924</v>
+        <v>0.08439132617938079</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1206536784878991</v>
+        <v>0.1207326474957449</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1713751265729525</v>
+        <v>0.1716355767070825</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08298529739842195</v>
+        <v>0.08253140945498448</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.09267017206440614</v>
+        <v>0.09285157762350343</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1377453698558985</v>
+        <v>0.137234416393485</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.19891789453748</v>
+        <v>0.1971518063532197</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.09787891872869575</v>
+        <v>0.09860053732673664</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1105599777961754</v>
+        <v>0.110909527501871</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1436277704509533</v>
+        <v>0.1449132054327391</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1862987730698107</v>
+        <v>0.1866452576155651</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.08694136937526339</v>
+        <v>0.08727319876414162</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.09880143431022401</v>
+        <v>0.09920536069947122</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1377004009364672</v>
+        <v>0.1380529621694524</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1881630531840626</v>
+        <v>0.1897720647703083</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>27817</v>
+        <v>28154</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>45005</v>
+        <v>43223</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>68994</v>
+        <v>67770</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>148294</v>
+        <v>146283</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>35923</v>
+        <v>35746</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>57309</v>
+        <v>56465</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>64051</v>
+        <v>65514</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>129589</v>
+        <v>130693</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>70442</v>
+        <v>70731</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>108916</v>
+        <v>109043</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>143212</v>
+        <v>141725</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>290344</v>
+        <v>289593</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>52811</v>
+        <v>52059</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>75018</v>
+        <v>74811</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>102757</v>
+        <v>104384</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>195685</v>
+        <v>194858</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>63009</v>
+        <v>62165</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>90686</v>
+        <v>87340</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>100947</v>
+        <v>100884</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>162297</v>
+        <v>163542</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>106641</v>
+        <v>107270</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>153065</v>
+        <v>154485</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>192954</v>
+        <v>190741</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>346197</v>
+        <v>345973</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>41547</v>
+        <v>39797</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>60129</v>
+        <v>57850</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>87754</v>
+        <v>88805</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>149251</v>
+        <v>150945</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>60671</v>
+        <v>61169</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>58523</v>
+        <v>60031</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>84821</v>
+        <v>83900</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>149840</v>
+        <v>148303</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>110678</v>
+        <v>113319</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>127637</v>
+        <v>127226</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>183249</v>
+        <v>182141</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>310245</v>
+        <v>313335</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>74272</v>
+        <v>70707</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>92667</v>
+        <v>92414</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>129562</v>
+        <v>129642</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>200701</v>
+        <v>202637</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>95513</v>
+        <v>95990</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>94461</v>
+        <v>93476</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>125989</v>
+        <v>125216</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>186426</v>
+        <v>188886</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>156796</v>
+        <v>154901</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>177276</v>
+        <v>176238</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>239904</v>
+        <v>240311</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>374022</v>
+        <v>377228</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>37161</v>
+        <v>37971</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>46679</v>
+        <v>46290</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>81464</v>
+        <v>79365</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>110590</v>
+        <v>114593</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>57026</v>
+        <v>56782</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>52639</v>
+        <v>53314</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>78112</v>
+        <v>78964</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>95365</v>
+        <v>96785</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>101688</v>
+        <v>102634</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>108660</v>
+        <v>109554</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>166681</v>
+        <v>170498</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>220440</v>
+        <v>219981</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>67635</v>
+        <v>68437</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>79621</v>
+        <v>79445</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>121882</v>
+        <v>118556</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>160550</v>
+        <v>165416</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>87812</v>
+        <v>87947</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>86176</v>
+        <v>85890</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>117413</v>
+        <v>117867</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>128169</v>
+        <v>129926</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>146671</v>
+        <v>147972</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>154913</v>
+        <v>156367</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>224373</v>
+        <v>225746</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>279369</v>
+        <v>275805</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>76596</v>
+        <v>76842</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>72968</v>
+        <v>72708</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>114948</v>
+        <v>116404</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>147633</v>
+        <v>146528</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>80591</v>
+        <v>81939</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>117139</v>
+        <v>118450</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>160687</v>
+        <v>161608</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>209561</v>
+        <v>210004</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>166753</v>
+        <v>167166</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>202458</v>
+        <v>199097</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>290350</v>
+        <v>291579</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>368108</v>
+        <v>372260</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>113387</v>
+        <v>113419</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>111496</v>
+        <v>111553</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>159212</v>
+        <v>159772</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>196744</v>
+        <v>193828</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>119848</v>
+        <v>120290</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>164443</v>
+        <v>163257</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>213826</v>
+        <v>214055</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>254632</v>
+        <v>255065</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>217976</v>
+        <v>222527</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>259309</v>
+        <v>259305</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>356151</v>
+        <v>360395</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>432795</v>
+        <v>437711</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>208512</v>
+        <v>209440</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>251991</v>
+        <v>252779</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>387552</v>
+        <v>388093</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>603154</v>
+        <v>603645</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>263181</v>
+        <v>263093</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>319051</v>
+        <v>317116</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>425638</v>
+        <v>429106</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>619803</v>
+        <v>622143</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>494058</v>
+        <v>490680</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>592017</v>
+        <v>589481</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>837203</v>
+        <v>837751</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1245848</v>
+        <v>1247742</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>271905</v>
+        <v>270418</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>317560</v>
+        <v>318182</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>467556</v>
+        <v>465822</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>702730</v>
+        <v>696490</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>330752</v>
+        <v>333191</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>393407</v>
+        <v>394650</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>509095</v>
+        <v>513651</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>696190</v>
+        <v>697485</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>578659</v>
+        <v>580868</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>690137</v>
+        <v>692958</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>955488</v>
+        <v>957935</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1367892</v>
+        <v>1379589</v>
       </c>
     </row>
     <row r="24">
